--- a/data/trans_dic/P23_DUKE_R-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P23_DUKE_R-Edad-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -504,7 +505,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N17"/>
+  <dimension ref="A1:T18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -529,12 +530,18 @@
     <col width="14" customWidth="1" min="12" max="12"/>
     <col width="14" customWidth="1" min="13" max="13"/>
     <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
+    <col width="14" customWidth="1" min="17" max="17"/>
+    <col width="14" customWidth="1" min="18" max="18"/>
+    <col width="14" customWidth="1" min="19" max="19"/>
+    <col width="14" customWidth="1" min="20" max="20"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que recibe apoyo social global bajo</t>
+          <t>Población que recibe apoyo social global bajo (tasa de respuesta: 93,87%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -546,22 +553,28 @@
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="n"/>
       <c r="J1" s="3" t="n"/>
-      <c r="K1" s="3" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
+      <c r="K1" s="3" t="n"/>
       <c r="L1" s="3" t="n"/>
       <c r="M1" s="3" t="n"/>
       <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="P1" s="3" t="n"/>
+      <c r="Q1" s="3" t="n"/>
+      <c r="R1" s="3" t="n"/>
+      <c r="S1" s="3" t="n"/>
+      <c r="T1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -583,47 +596,77 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
           <t>Mz1</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>Mz1</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="O2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="L2" s="3" t="inlineStr">
+      <c r="P2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="M2" s="3" t="inlineStr">
+      <c r="Q2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="N2" s="3" t="inlineStr">
+      <c r="R2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="S2" s="3" t="inlineStr">
         <is>
           <t>Mz1</t>
+        </is>
+      </c>
+      <c r="T2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
         </is>
       </c>
     </row>
@@ -642,6 +685,12 @@
       <c r="L3" s="2" t="n"/>
       <c r="M3" s="2" t="n"/>
       <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
+      <c r="Q3" s="2" t="n"/>
+      <c r="R3" s="2" t="n"/>
+      <c r="S3" s="2" t="n"/>
+      <c r="T3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -656,62 +705,92 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>12,92%</t>
+          <t>82,76%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>9,02%</t>
+          <t>78,52%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>4,04%</t>
+          <t>70,65%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>83,23%</t>
+          <t>82,69%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>11,15%</t>
+          <t>91,22%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>11,82%</t>
+          <t>85,57%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>10,97%</t>
+          <t>77,4%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>70,92%</t>
+          <t>74,76%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>12,06%</t>
+          <t>74,77%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>10,43%</t>
+          <t>82,88%</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>7,62%</t>
+          <t>83,77%</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>77,46%</t>
+          <t>72,7%</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>80,16%</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>76,63%</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>72,77%</t>
+        </is>
+      </c>
+      <c r="R4" s="2" t="inlineStr">
+        <is>
+          <t>82,79%</t>
+        </is>
+      </c>
+      <c r="S4" s="2" t="inlineStr">
+        <is>
+          <t>87,73%</t>
+        </is>
+      </c>
+      <c r="T4" s="2" t="inlineStr">
+        <is>
+          <t>79,39%</t>
         </is>
       </c>
     </row>
@@ -724,62 +803,92 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>7,77; 20,57</t>
+          <t>75,26; 88,53</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>4,93; 14,65</t>
+          <t>71,43; 86,05</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>1,03; 10,31</t>
+          <t>62,54; 79,04</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>74,51; 89,29</t>
+          <t>73,79; 89,92</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>6,52; 18,79</t>
+          <t>84,85; 95,85</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>7,39; 18,4</t>
+          <t>76,75; 92,19</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>6,82; 16,49</t>
+          <t>69,1; 84,18</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>61,99; 79,51</t>
+          <t>67,29; 81,47</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>8,34; 16,69</t>
+          <t>66,38; 81,16</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>7,09; 14,12</t>
+          <t>75,74; 88,38</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>4,99; 11,03</t>
+          <t>76,13; 90,43</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>71,45; 82,87</t>
+          <t>64,34; 79,76</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>74,86; 84,91</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>70,66; 80,95</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>67,07; 78,04</t>
+        </is>
+      </c>
+      <c r="R5" s="2" t="inlineStr">
+        <is>
+          <t>76,9; 87,44</t>
+        </is>
+      </c>
+      <c r="S5" s="2" t="inlineStr">
+        <is>
+          <t>82,82; 91,84</t>
+        </is>
+      </c>
+      <c r="T5" s="2" t="inlineStr">
+        <is>
+          <t>73,65; 84,36</t>
         </is>
       </c>
     </row>
@@ -796,62 +905,92 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>11,62%</t>
+          <t>80,68%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>7,6%</t>
+          <t>84,16%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>19,49%</t>
+          <t>83,46%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>79,58%</t>
+          <t>85,22%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>15,68%</t>
+          <t>84,71%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>10,83%</t>
+          <t>82,18%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>12,47%</t>
+          <t>88,9%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>80,22%</t>
+          <t>89,07%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>13,52%</t>
+          <t>85,98%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>9,17%</t>
+          <t>84,12%</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>16,15%</t>
+          <t>87,33%</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>79,89%</t>
+          <t>84,45%</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>84,51%</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>86,53%</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
+          <t>84,65%</t>
+        </is>
+      </c>
+      <c r="R6" s="2" t="inlineStr">
+        <is>
+          <t>84,7%</t>
+        </is>
+      </c>
+      <c r="S6" s="2" t="inlineStr">
+        <is>
+          <t>85,99%</t>
+        </is>
+      </c>
+      <c r="T6" s="2" t="inlineStr">
+        <is>
+          <t>83,29%</t>
         </is>
       </c>
     </row>
@@ -864,62 +1003,92 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>6,18; 23,63</t>
+          <t>67,42; 87,15</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>3,41; 17,33</t>
+          <t>77,75; 89,02</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>10,7; 33,31</t>
+          <t>77,26; 89,15</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>65,41; 86,59</t>
+          <t>76,88; 91,26</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>10,43; 21,44</t>
+          <t>70,45; 91,68</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>7,14; 15,44</t>
+          <t>71,73; 89,11</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>8,6; 17,45</t>
+          <t>82,49; 93,49</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>73,75; 86,65</t>
+          <t>84,46; 92,89</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>9,75; 20,57</t>
+          <t>80,44; 90,3</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>6,38; 13,95</t>
+          <t>77,0; 89,56</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>11,56; 24,81</t>
+          <t>81,54; 92,29</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>72,86; 85,11</t>
+          <t>77,82; 89,71</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>77,43; 89,11</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>82,71; 89,6</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>80,64; 88,08</t>
+        </is>
+      </c>
+      <c r="R7" s="2" t="inlineStr">
+        <is>
+          <t>78,73; 89,04</t>
+        </is>
+      </c>
+      <c r="S7" s="2" t="inlineStr">
+        <is>
+          <t>78,74; 90,57</t>
+        </is>
+      </c>
+      <c r="T7" s="2" t="inlineStr">
+        <is>
+          <t>77,68; 88,24</t>
         </is>
       </c>
     </row>
@@ -936,62 +1105,92 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>21,1%</t>
+          <t>84,41%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>17,17%</t>
+          <t>90,02%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>19,59%</t>
+          <t>91,15%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>83,36%</t>
+          <t>84,17%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>16,18%</t>
+          <t>85,68%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>12,05%</t>
+          <t>89,98%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>17,89%</t>
+          <t>86,29%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>88,77%</t>
+          <t>90,01%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>18,56%</t>
+          <t>89,22%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>14,5%</t>
+          <t>86,74%</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>18,69%</t>
+          <t>94,84%</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>85,94%</t>
+          <t>87,91%</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>85,39%</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>90,02%</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>90,13%</t>
+        </is>
+      </c>
+      <c r="R8" s="2" t="inlineStr">
+        <is>
+          <t>85,51%</t>
+        </is>
+      </c>
+      <c r="S8" s="2" t="inlineStr">
+        <is>
+          <t>90,05%</t>
+        </is>
+      </c>
+      <c r="T8" s="2" t="inlineStr">
+        <is>
+          <t>89,0%</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1203,92 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>14,18; 32,39</t>
+          <t>75,9; 90,73</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>12,4; 24,84</t>
+          <t>85,76; 93,27</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>14,3; 26,73</t>
+          <t>87,0; 94,25</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>76,57; 88,85</t>
+          <t>72,89; 89,38</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>12,35; 21,14</t>
+          <t>79,27; 90,49</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>9,13; 16,22</t>
+          <t>84,71; 94,0</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>13,91; 22,35</t>
+          <t>81,42; 89,98</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>83,88; 92,36</t>
+          <t>86,08; 92,66</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>14,37; 24,58</t>
+          <t>85,49; 92,17</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>11,45; 18,42</t>
+          <t>82,62; 90,17</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>15,39; 23,08</t>
+          <t>91,29; 97,41</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>81,83; 89,11</t>
+          <t>82,77; 91,6</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>80,57; 88,93</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>87,37; 92,38</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>87,54; 92,67</t>
+        </is>
+      </c>
+      <c r="R9" s="2" t="inlineStr">
+        <is>
+          <t>80,6; 88,81</t>
+        </is>
+      </c>
+      <c r="S9" s="2" t="inlineStr">
+        <is>
+          <t>86,18; 92,85</t>
+        </is>
+      </c>
+      <c r="T9" s="2" t="inlineStr">
+        <is>
+          <t>85,34; 91,79</t>
         </is>
       </c>
     </row>
@@ -1076,62 +1305,92 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>16,55%</t>
+          <t>84,26%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>24,24%</t>
+          <t>87,97%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>22,43%</t>
+          <t>83,77%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>93,02%</t>
+          <t>91,67%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>20,43%</t>
+          <t>94,9%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>23,67%</t>
+          <t>91,41%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>28,62%</t>
+          <t>87,03%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>89,91%</t>
+          <t>91,98%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>18,61%</t>
+          <t>92,6%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>23,94%</t>
+          <t>91,36%</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>25,65%</t>
+          <t>93,61%</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>91,52%</t>
+          <t>90,07%</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>85,72%</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>90,05%</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>88,35%</t>
+        </is>
+      </c>
+      <c r="R10" s="2" t="inlineStr">
+        <is>
+          <t>91,51%</t>
+        </is>
+      </c>
+      <c r="S10" s="2" t="inlineStr">
+        <is>
+          <t>94,27%</t>
+        </is>
+      </c>
+      <c r="T10" s="2" t="inlineStr">
+        <is>
+          <t>90,76%</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1403,92 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>11,95; 23,51</t>
+          <t>78,79; 88,85</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>18,47; 30,57</t>
+          <t>83,28; 91,71</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>16,93; 28,58</t>
+          <t>79,53; 87,92</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>88,19; 96,23</t>
+          <t>87,11; 94,72</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>15,81; 25,56</t>
+          <t>90,98; 97,58</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>19,06; 29,13</t>
+          <t>86,41; 94,75</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>23,7; 33,14</t>
+          <t>82,12; 90,21</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>85,01; 93,37</t>
+          <t>88,69; 94,6</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>15,04; 22,56</t>
+          <t>89,61; 95,02</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>20,39; 28,47</t>
+          <t>87,76; 94,53</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>21,96; 29,57</t>
+          <t>89,68; 96,66</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>88,1; 93,89</t>
+          <t>85,24; 93,51</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>82,19; 88,55</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>87,22; 92,28</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>85,47; 90,91</t>
+        </is>
+      </c>
+      <c r="R11" s="2" t="inlineStr">
+        <is>
+          <t>88,82; 93,8</t>
+        </is>
+      </c>
+      <c r="S11" s="2" t="inlineStr">
+        <is>
+          <t>91,37; 96,29</t>
+        </is>
+      </c>
+      <c r="T11" s="2" t="inlineStr">
+        <is>
+          <t>87,74; 93,28</t>
         </is>
       </c>
     </row>
@@ -1216,62 +1505,92 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>13,94%</t>
+          <t>78,92%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>16,86%</t>
+          <t>82,03%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>17,13%</t>
+          <t>87,56%</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>87,42%</t>
+          <t>89,27%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>23,98%</t>
+          <t>90,19%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>18,68%</t>
+          <t>88,67%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>23,1%</t>
+          <t>85,56%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>83,01%</t>
+          <t>87,0%</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>19,31%</t>
+          <t>86,17%</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>17,81%</t>
+          <t>90,77%</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>20,15%</t>
+          <t>86,87%</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
         <is>
-          <t>85,05%</t>
+          <t>89,97%</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
+          <t>82,46%</t>
+        </is>
+      </c>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>84,62%</t>
+        </is>
+      </c>
+      <c r="Q12" s="2" t="inlineStr">
+        <is>
+          <t>86,86%</t>
+        </is>
+      </c>
+      <c r="R12" s="2" t="inlineStr">
+        <is>
+          <t>90,02%</t>
+        </is>
+      </c>
+      <c r="S12" s="2" t="inlineStr">
+        <is>
+          <t>88,41%</t>
+        </is>
+      </c>
+      <c r="T12" s="2" t="inlineStr">
+        <is>
+          <t>89,35%</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1603,92 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>9,56; 19,65</t>
+          <t>72,25; 85,12</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>12,13; 22,62</t>
+          <t>75,3; 87,05</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>12,35; 23,31</t>
+          <t>81,82; 91,61</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>80,55; 91,9</t>
+          <t>82,49; 94,03</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>18,28; 31,24</t>
+          <t>84,29; 94,43</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>13,58; 24,56</t>
+          <t>82,13; 93,05</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>17,9; 29,2</t>
+          <t>78,86; 90,42</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>76,88; 87,94</t>
+          <t>81,69; 91,08</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>15,33; 24,08</t>
+          <t>80,89; 90,18</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>14,34; 21,98</t>
+          <t>84,73; 94,6</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>16,29; 24,33</t>
+          <t>81,64; 91,25</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>80,92; 88,45</t>
+          <t>85,06; 93,75</t>
+        </is>
+      </c>
+      <c r="O13" s="2" t="inlineStr">
+        <is>
+          <t>78,18; 85,95</t>
+        </is>
+      </c>
+      <c r="P13" s="2" t="inlineStr">
+        <is>
+          <t>80,49; 87,81</t>
+        </is>
+      </c>
+      <c r="Q13" s="2" t="inlineStr">
+        <is>
+          <t>83,4; 89,7</t>
+        </is>
+      </c>
+      <c r="R13" s="2" t="inlineStr">
+        <is>
+          <t>85,86; 92,93</t>
+        </is>
+      </c>
+      <c r="S13" s="2" t="inlineStr">
+        <is>
+          <t>84,37; 91,4</t>
+        </is>
+      </c>
+      <c r="T13" s="2" t="inlineStr">
+        <is>
+          <t>85,4; 92,44</t>
         </is>
       </c>
     </row>
@@ -1356,62 +1705,92 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>18,27%</t>
+          <t>78,25%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>20,87%</t>
+          <t>83,98%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>17,06%</t>
+          <t>83,6%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>82,75%</t>
+          <t>90,9%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>19,86%</t>
+          <t>85,0%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>13,06%</t>
+          <t>92,36%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>23,44%</t>
+          <t>75,04%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>80,19%</t>
+          <t>81,43%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>19,21%</t>
+          <t>78,51%</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>16,2%</t>
+          <t>84,97%</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>20,74%</t>
+          <t>83,99%</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
-          <t>81,22%</t>
+          <t>82,31%</t>
+        </is>
+      </c>
+      <c r="O14" s="2" t="inlineStr">
+        <is>
+          <t>76,37%</t>
+        </is>
+      </c>
+      <c r="P14" s="2" t="inlineStr">
+        <is>
+          <t>82,44%</t>
+        </is>
+      </c>
+      <c r="Q14" s="2" t="inlineStr">
+        <is>
+          <t>80,68%</t>
+        </is>
+      </c>
+      <c r="R14" s="2" t="inlineStr">
+        <is>
+          <t>87,64%</t>
+        </is>
+      </c>
+      <c r="S14" s="2" t="inlineStr">
+        <is>
+          <t>84,4%</t>
+        </is>
+      </c>
+      <c r="T14" s="2" t="inlineStr">
+        <is>
+          <t>86,45%</t>
         </is>
       </c>
     </row>
@@ -1424,62 +1803,92 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>10,29; 28,62</t>
+          <t>70,69; 85,77</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>13,76; 29,77</t>
+          <t>72,74; 90,52</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>11,85; 24,73</t>
+          <t>72,06; 90,08</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>73,09; 89,03</t>
+          <t>83,11; 95,87</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>13,87; 27,39</t>
+          <t>76,63; 91,52</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>8,88; 18,51</t>
+          <t>84,37; 96,13</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>14,51; 42,41</t>
+          <t>67,21; 81,32</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>70,96; 88,21</t>
+          <t>74,53; 86,69</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>14,07; 25,58</t>
+          <t>71,92; 84,43</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>12,3; 20,69</t>
+          <t>76,14; 91,61</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>15,26; 33,64</t>
+          <t>74,31; 91,3</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>74,14; 86,23</t>
+          <t>72,95; 88,78</t>
+        </is>
+      </c>
+      <c r="O15" s="2" t="inlineStr">
+        <is>
+          <t>71,16; 81,22</t>
+        </is>
+      </c>
+      <c r="P15" s="2" t="inlineStr">
+        <is>
+          <t>77,33; 86,59</t>
+        </is>
+      </c>
+      <c r="Q15" s="2" t="inlineStr">
+        <is>
+          <t>74,8; 85,42</t>
+        </is>
+      </c>
+      <c r="R15" s="2" t="inlineStr">
+        <is>
+          <t>80,9; 92,18</t>
+        </is>
+      </c>
+      <c r="S15" s="2" t="inlineStr">
+        <is>
+          <t>77,09; 89,0</t>
+        </is>
+      </c>
+      <c r="T15" s="2" t="inlineStr">
+        <is>
+          <t>81,3; 90,57</t>
         </is>
       </c>
     </row>
@@ -1496,62 +1905,92 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>15,93%</t>
+          <t>81,92%</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>15,83%</t>
+          <t>84,89%</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>17,01%</t>
+          <t>83,65%</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>85,06%</t>
+          <t>87,21%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>17,94%</t>
+          <t>88,72%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>15,06%</t>
+          <t>88,36%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>19,56%</t>
+          <t>83,59%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>82,8%</t>
+          <t>86,11%</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>16,98%</t>
+          <t>84,98%</t>
         </is>
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>15,43%</t>
+          <t>86,94%</t>
         </is>
       </c>
       <c r="M16" s="2" t="inlineStr">
         <is>
-          <t>18,34%</t>
+          <t>88,76%</t>
         </is>
       </c>
       <c r="N16" s="2" t="inlineStr">
         <is>
-          <t>83,92%</t>
+          <t>84,93%</t>
+        </is>
+      </c>
+      <c r="O16" s="2" t="inlineStr">
+        <is>
+          <t>82,79%</t>
+        </is>
+      </c>
+      <c r="P16" s="2" t="inlineStr">
+        <is>
+          <t>85,53%</t>
+        </is>
+      </c>
+      <c r="Q16" s="2" t="inlineStr">
+        <is>
+          <t>84,34%</t>
+        </is>
+      </c>
+      <c r="R16" s="2" t="inlineStr">
+        <is>
+          <t>87,08%</t>
+        </is>
+      </c>
+      <c r="S16" s="2" t="inlineStr">
+        <is>
+          <t>88,74%</t>
+        </is>
+      </c>
+      <c r="T16" s="2" t="inlineStr">
+        <is>
+          <t>86,63%</t>
         </is>
       </c>
     </row>
@@ -1564,78 +2003,2419 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>12,96; 19,79</t>
+          <t>78,26; 84,54</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>13,41; 18,55</t>
+          <t>82,21; 86,97</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>14,43; 20,61</t>
+          <t>80,93; 85,96</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>81,65; 87,69</t>
+          <t>84,45; 89,54</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>15,52; 19,99</t>
+          <t>85,66; 91,1</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>13,25; 16,88</t>
+          <t>85,52; 90,41</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>17,55; 23,7</t>
+          <t>81,05; 85,47</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>79,84; 85,09</t>
+          <t>84,23; 87,9</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>15,14; 18,73</t>
+          <t>82,98; 86,98</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>13,97; 17,06</t>
+          <t>84,78; 88,98</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>16,53; 20,57</t>
+          <t>86,17; 91,0</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>81,88; 85,73</t>
+          <t>82,44; 87,35</t>
+        </is>
+      </c>
+      <c r="O17" s="2" t="inlineStr">
+        <is>
+          <t>80,72; 84,52</t>
+        </is>
+      </c>
+      <c r="P17" s="2" t="inlineStr">
+        <is>
+          <t>83,97; 86,92</t>
+        </is>
+      </c>
+      <c r="Q17" s="2" t="inlineStr">
+        <is>
+          <t>82,67; 85,91</t>
+        </is>
+      </c>
+      <c r="R17" s="2" t="inlineStr">
+        <is>
+          <t>85,19; 88,61</t>
+        </is>
+      </c>
+      <c r="S17" s="2" t="inlineStr">
+        <is>
+          <t>86,87; 90,37</t>
+        </is>
+      </c>
+      <c r="T17" s="2" t="inlineStr">
+        <is>
+          <t>84,97; 88,35</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="11">
     <mergeCell ref="A8:A9"/>
+    <mergeCell ref="O1:T1"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
+    <mergeCell ref="I1:N1"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="C1:H1"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:T25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
+    <col width="14" customWidth="1" min="17" max="17"/>
+    <col width="14" customWidth="1" min="18" max="18"/>
+    <col width="14" customWidth="1" min="19" max="19"/>
+    <col width="14" customWidth="1" min="20" max="20"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que recibe apoyo social global bajo (tasa de respuesta: 93,87%)</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="P1" s="3" t="n"/>
+      <c r="Q1" s="3" t="n"/>
+      <c r="R1" s="3" t="n"/>
+      <c r="S1" s="3" t="n"/>
+      <c r="T1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="O2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="P2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="Q2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="R2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="S2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="T2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
+      <c r="Q3" s="2" t="n"/>
+      <c r="R3" s="2" t="n"/>
+      <c r="S3" s="2" t="n"/>
+      <c r="T3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>16-24</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>103.0</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>96.0</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>75.0</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>76.0</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>88.0</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>78.0</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>111.0</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>127.0</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>127.0</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>110.0</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>88.0</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>92.0</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>214.0</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>223.0</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>202.0</t>
+        </is>
+      </c>
+      <c r="R4" s="2" t="inlineStr">
+        <is>
+          <t>186.0</t>
+        </is>
+      </c>
+      <c r="S4" s="2" t="inlineStr">
+        <is>
+          <t>176.0</t>
+        </is>
+      </c>
+      <c r="T4" s="2" t="inlineStr">
+        <is>
+          <t>170.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>385601</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>377258</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>332370</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>361574</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>35894</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>35782</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>339336</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>360494</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>372722</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>387533</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>29052</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>28026</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>724938</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>737751</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>705092</t>
+        </is>
+      </c>
+      <c r="R5" s="2" t="inlineStr">
+        <is>
+          <t>749107</t>
+        </is>
+      </c>
+      <c r="S5" s="2" t="inlineStr">
+        <is>
+          <t>64947</t>
+        </is>
+      </c>
+      <c r="T5" s="2" t="inlineStr">
+        <is>
+          <t>63808</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>350667; 412493</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>343188; 413444</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>294206; 371834</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>322674; 393192</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>33386; 37714</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>32095; 38550</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>302956; 369083</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>324491; 392893</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>330933; 404571</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>354128; 413232</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>26403; 31360</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>24803; 30747</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>677007; 767855</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>680229; 779249</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
+          <t>649878; 756200</t>
+        </is>
+      </c>
+      <c r="R6" s="2" t="inlineStr">
+        <is>
+          <t>695781; 791193</t>
+        </is>
+      </c>
+      <c r="S6" s="2" t="inlineStr">
+        <is>
+          <t>61313; 67985</t>
+        </is>
+      </c>
+      <c r="T6" s="2" t="inlineStr">
+        <is>
+          <t>59193; 67799</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>25-34</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>120.0</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>139.0</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>145.0</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>105.0</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>92.0</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>85.0</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>142.0</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>188.0</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>193.0</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>146.0</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>145.0</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>135.0</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>262.0</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>327.0</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>338.0</t>
+        </is>
+      </c>
+      <c r="R7" s="2" t="inlineStr">
+        <is>
+          <t>251.0</t>
+        </is>
+      </c>
+      <c r="S7" s="2" t="inlineStr">
+        <is>
+          <t>237.0</t>
+        </is>
+      </c>
+      <c r="T7" s="2" t="inlineStr">
+        <is>
+          <t>220.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>437643</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>424130</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>465444</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>470603</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>39889</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>38161</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>421286</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>420155</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>432887</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>412711</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>39013</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>37311</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>858929</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>844285</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>898331</t>
+        </is>
+      </c>
+      <c r="R8" s="2" t="inlineStr">
+        <is>
+          <t>883313</t>
+        </is>
+      </c>
+      <c r="S8" s="2" t="inlineStr">
+        <is>
+          <t>78902</t>
+        </is>
+      </c>
+      <c r="T8" s="2" t="inlineStr">
+        <is>
+          <t>75472</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>365690; 472727</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>391829; 448631</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>430877; 497192</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>424555; 503958</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>33174; 43168</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>33305; 41377</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>390897; 443050</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>398441; 438205</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>404999; 454628</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>377743; 439363</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>36427; 41228</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>34381; 39633</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>786958; 905643</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>807042; 874231</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>855719; 934688</t>
+        </is>
+      </c>
+      <c r="R9" s="2" t="inlineStr">
+        <is>
+          <t>821023; 928500</t>
+        </is>
+      </c>
+      <c r="S9" s="2" t="inlineStr">
+        <is>
+          <t>72251; 83105</t>
+        </is>
+      </c>
+      <c r="T9" s="2" t="inlineStr">
+        <is>
+          <t>70390; 79955</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>35-44</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>175.0</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>221.0</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>230.0</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>168.0</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>166.0</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>156.0</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>234.0</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>300.0</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>318.0</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>255.0</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>213.0</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>181.0</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>409.0</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>521.0</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>548.0</t>
+        </is>
+      </c>
+      <c r="R10" s="2" t="inlineStr">
+        <is>
+          <t>423.0</t>
+        </is>
+      </c>
+      <c r="S10" s="2" t="inlineStr">
+        <is>
+          <t>379.0</t>
+        </is>
+      </c>
+      <c r="T10" s="2" t="inlineStr">
+        <is>
+          <t>337.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>521034</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>543568</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>546950</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>525904</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>46542</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>52029</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>586988</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>592154</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>596974</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>587249</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>47033</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>45990</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>1108022</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>1135723</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>1143924</t>
+        </is>
+      </c>
+      <c r="R11" s="2" t="inlineStr">
+        <is>
+          <t>1113153</t>
+        </is>
+      </c>
+      <c r="S11" s="2" t="inlineStr">
+        <is>
+          <t>93575</t>
+        </is>
+      </c>
+      <c r="T11" s="2" t="inlineStr">
+        <is>
+          <t>98020</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>468497; 560046</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>517840; 563179</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>522026; 565528</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>455391; 558442</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>43063; 49156</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>48978; 54350</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>553889; 612091</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>566315; 609570</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>572015; 616707</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>559372; 610486</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>45272; 48307</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>43299; 47919</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
+          <t>1045384; 1153915</t>
+        </is>
+      </c>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>1102311; 1165608</t>
+        </is>
+      </c>
+      <c r="Q12" s="2" t="inlineStr">
+        <is>
+          <t>1110986; 1176181</t>
+        </is>
+      </c>
+      <c r="R12" s="2" t="inlineStr">
+        <is>
+          <t>1049324; 1156167</t>
+        </is>
+      </c>
+      <c r="S12" s="2" t="inlineStr">
+        <is>
+          <t>89549; 96488</t>
+        </is>
+      </c>
+      <c r="T12" s="2" t="inlineStr">
+        <is>
+          <t>93990; 101089</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>45-54</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>192.0</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>224.0</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>221.0</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>205.0</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>156.0</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>176.0</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>244.0</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>289.0</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>318.0</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>267.0</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>193.0</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>196.0</t>
+        </is>
+      </c>
+      <c r="O13" s="2" t="inlineStr">
+        <is>
+          <t>436.0</t>
+        </is>
+      </c>
+      <c r="P13" s="2" t="inlineStr">
+        <is>
+          <t>513.0</t>
+        </is>
+      </c>
+      <c r="Q13" s="2" t="inlineStr">
+        <is>
+          <t>539.0</t>
+        </is>
+      </c>
+      <c r="R13" s="2" t="inlineStr">
+        <is>
+          <t>472.0</t>
+        </is>
+      </c>
+      <c r="S13" s="2" t="inlineStr">
+        <is>
+          <t>349.0</t>
+        </is>
+      </c>
+      <c r="T13" s="2" t="inlineStr">
+        <is>
+          <t>372.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>473829</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>479151</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>462708</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>541099</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>48477</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>48276</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>543653</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>542147</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>551472</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>566203</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>44879</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>44091</t>
+        </is>
+      </c>
+      <c r="O14" s="2" t="inlineStr">
+        <is>
+          <t>1017481</t>
+        </is>
+      </c>
+      <c r="P14" s="2" t="inlineStr">
+        <is>
+          <t>1021298</t>
+        </is>
+      </c>
+      <c r="Q14" s="2" t="inlineStr">
+        <is>
+          <t>1014181</t>
+        </is>
+      </c>
+      <c r="R14" s="2" t="inlineStr">
+        <is>
+          <t>1107302</t>
+        </is>
+      </c>
+      <c r="S14" s="2" t="inlineStr">
+        <is>
+          <t>93357</t>
+        </is>
+      </c>
+      <c r="T14" s="2" t="inlineStr">
+        <is>
+          <t>92367</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>443022; 499604</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>453579; 499530</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>439289; 485619</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>514221; 559096</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>46477; 49847</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>45638; 50040</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>512984; 563500</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>522749; 557615</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>533650; 565851</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>543900; 585842</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>42996; 46343</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>41723; 45773</t>
+        </is>
+      </c>
+      <c r="O15" s="2" t="inlineStr">
+        <is>
+          <t>975596; 1051074</t>
+        </is>
+      </c>
+      <c r="P15" s="2" t="inlineStr">
+        <is>
+          <t>989227; 1046593</t>
+        </is>
+      </c>
+      <c r="Q15" s="2" t="inlineStr">
+        <is>
+          <t>981047; 1043509</t>
+        </is>
+      </c>
+      <c r="R15" s="2" t="inlineStr">
+        <is>
+          <t>1074719; 1134988</t>
+        </is>
+      </c>
+      <c r="S15" s="2" t="inlineStr">
+        <is>
+          <t>90479; 95356</t>
+        </is>
+      </c>
+      <c r="T15" s="2" t="inlineStr">
+        <is>
+          <t>89287; 94930</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>55-64</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>135.0</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>158.0</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>199.0</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>165.0</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>123.0</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>137.0</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>164.0</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>179.0</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>190.0</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>141.0</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>161.0</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>167.0</t>
+        </is>
+      </c>
+      <c r="O16" s="2" t="inlineStr">
+        <is>
+          <t>299.0</t>
+        </is>
+      </c>
+      <c r="P16" s="2" t="inlineStr">
+        <is>
+          <t>337.0</t>
+        </is>
+      </c>
+      <c r="Q16" s="2" t="inlineStr">
+        <is>
+          <t>389.0</t>
+        </is>
+      </c>
+      <c r="R16" s="2" t="inlineStr">
+        <is>
+          <t>306.0</t>
+        </is>
+      </c>
+      <c r="S16" s="2" t="inlineStr">
+        <is>
+          <t>284.0</t>
+        </is>
+      </c>
+      <c r="T16" s="2" t="inlineStr">
+        <is>
+          <t>304.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>306774</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>301938</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>374661</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>381128</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>32911</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>33667</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>381041</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>348075</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>376985</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>390966</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>36727</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>38196</t>
+        </is>
+      </c>
+      <c r="O17" s="2" t="inlineStr">
+        <is>
+          <t>687814</t>
+        </is>
+      </c>
+      <c r="P17" s="2" t="inlineStr">
+        <is>
+          <t>650012</t>
+        </is>
+      </c>
+      <c r="Q17" s="2" t="inlineStr">
+        <is>
+          <t>751646</t>
+        </is>
+      </c>
+      <c r="R17" s="2" t="inlineStr">
+        <is>
+          <t>772094</t>
+        </is>
+      </c>
+      <c r="S17" s="2" t="inlineStr">
+        <is>
+          <t>69638</t>
+        </is>
+      </c>
+      <c r="T17" s="2" t="inlineStr">
+        <is>
+          <t>71862</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>280837; 330889</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>277167; 320422</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>350120; 392000</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>352197; 401473</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>30757; 34457</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>31183; 35332</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>351214; 402697</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>326812; 364393</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>353869; 394530</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>364952; 407445</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>34517; 38580</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>36113; 39802</t>
+        </is>
+      </c>
+      <c r="O18" s="2" t="inlineStr">
+        <is>
+          <t>652061; 716851</t>
+        </is>
+      </c>
+      <c r="P18" s="2" t="inlineStr">
+        <is>
+          <t>618318; 674478</t>
+        </is>
+      </c>
+      <c r="Q18" s="2" t="inlineStr">
+        <is>
+          <t>721720; 776234</t>
+        </is>
+      </c>
+      <c r="R18" s="2" t="inlineStr">
+        <is>
+          <t>736379; 797048</t>
+        </is>
+      </c>
+      <c r="S18" s="2" t="inlineStr">
+        <is>
+          <t>66461; 71995</t>
+        </is>
+      </c>
+      <c r="T18" s="2" t="inlineStr">
+        <is>
+          <t>68684; 74344</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>65 Y MAS</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>94.0</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>94.0</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>116.0</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>88.0</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>78.0</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>105.0</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>121.0</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>148.0</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>146.0</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>91.0</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>79.0</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>112.0</t>
+        </is>
+      </c>
+      <c r="O19" s="2" t="inlineStr">
+        <is>
+          <t>215.0</t>
+        </is>
+      </c>
+      <c r="P19" s="2" t="inlineStr">
+        <is>
+          <t>242.0</t>
+        </is>
+      </c>
+      <c r="Q19" s="2" t="inlineStr">
+        <is>
+          <t>262.0</t>
+        </is>
+      </c>
+      <c r="R19" s="2" t="inlineStr">
+        <is>
+          <t>179.0</t>
+        </is>
+      </c>
+      <c r="S19" s="2" t="inlineStr">
+        <is>
+          <t>157.0</t>
+        </is>
+      </c>
+      <c r="T19" s="2" t="inlineStr">
+        <is>
+          <t>217.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>302314</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>269758</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>317857</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>364419</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>26172</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>31623</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>408876</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>400400</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>400713</t>
+        </is>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>415148</t>
+        </is>
+      </c>
+      <c r="M20" s="2" t="inlineStr">
+        <is>
+          <t>38079</t>
+        </is>
+      </c>
+      <c r="N20" s="2" t="inlineStr">
+        <is>
+          <t>40139</t>
+        </is>
+      </c>
+      <c r="O20" s="2" t="inlineStr">
+        <is>
+          <t>711190</t>
+        </is>
+      </c>
+      <c r="P20" s="2" t="inlineStr">
+        <is>
+          <t>670159</t>
+        </is>
+      </c>
+      <c r="Q20" s="2" t="inlineStr">
+        <is>
+          <t>718569</t>
+        </is>
+      </c>
+      <c r="R20" s="2" t="inlineStr">
+        <is>
+          <t>779566</t>
+        </is>
+      </c>
+      <c r="S20" s="2" t="inlineStr">
+        <is>
+          <t>64251</t>
+        </is>
+      </c>
+      <c r="T20" s="2" t="inlineStr">
+        <is>
+          <t>71762</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>273121; 331374</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>233656; 290771</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>274003; 342499</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>333197; 384379</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>23593; 28179</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>28888; 32914</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>366204; 443105</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>366467; 426260</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>367054; 430947</t>
+        </is>
+      </c>
+      <c r="L21" s="2" t="inlineStr">
+        <is>
+          <t>372050; 447602</t>
+        </is>
+      </c>
+      <c r="M21" s="2" t="inlineStr">
+        <is>
+          <t>33688; 41393</t>
+        </is>
+      </c>
+      <c r="N21" s="2" t="inlineStr">
+        <is>
+          <t>35573; 43297</t>
+        </is>
+      </c>
+      <c r="O21" s="2" t="inlineStr">
+        <is>
+          <t>662675; 756335</t>
+        </is>
+      </c>
+      <c r="P21" s="2" t="inlineStr">
+        <is>
+          <t>628583; 703930</t>
+        </is>
+      </c>
+      <c r="Q21" s="2" t="inlineStr">
+        <is>
+          <t>666176; 760805</t>
+        </is>
+      </c>
+      <c r="R21" s="2" t="inlineStr">
+        <is>
+          <t>719584; 819939</t>
+        </is>
+      </c>
+      <c r="S21" s="2" t="inlineStr">
+        <is>
+          <t>58684; 67754</t>
+        </is>
+      </c>
+      <c r="T21" s="2" t="inlineStr">
+        <is>
+          <t>67481; 75177</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>819.0</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>932.0</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>986.0</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>807.0</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>703.0</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>737.0</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>1016.0</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>1231.0</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>1292.0</t>
+        </is>
+      </c>
+      <c r="L22" s="2" t="inlineStr">
+        <is>
+          <t>1010.0</t>
+        </is>
+      </c>
+      <c r="M22" s="2" t="inlineStr">
+        <is>
+          <t>879.0</t>
+        </is>
+      </c>
+      <c r="N22" s="2" t="inlineStr">
+        <is>
+          <t>883.0</t>
+        </is>
+      </c>
+      <c r="O22" s="2" t="inlineStr">
+        <is>
+          <t>1835.0</t>
+        </is>
+      </c>
+      <c r="P22" s="2" t="inlineStr">
+        <is>
+          <t>2163.0</t>
+        </is>
+      </c>
+      <c r="Q22" s="2" t="inlineStr">
+        <is>
+          <t>2278.0</t>
+        </is>
+      </c>
+      <c r="R22" s="2" t="inlineStr">
+        <is>
+          <t>1817.0</t>
+        </is>
+      </c>
+      <c r="S22" s="2" t="inlineStr">
+        <is>
+          <t>1582.0</t>
+        </is>
+      </c>
+      <c r="T22" s="2" t="inlineStr">
+        <is>
+          <t>1620.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>2427195</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>2395803</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>2499991</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>2644726</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>229884</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>239537</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>2681179</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>2663424</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>2731752</t>
+        </is>
+      </c>
+      <c r="L23" s="2" t="inlineStr">
+        <is>
+          <t>2759810</t>
+        </is>
+      </c>
+      <c r="M23" s="2" t="inlineStr">
+        <is>
+          <t>234785</t>
+        </is>
+      </c>
+      <c r="N23" s="2" t="inlineStr">
+        <is>
+          <t>233753</t>
+        </is>
+      </c>
+      <c r="O23" s="2" t="inlineStr">
+        <is>
+          <t>5108374</t>
+        </is>
+      </c>
+      <c r="P23" s="2" t="inlineStr">
+        <is>
+          <t>5059228</t>
+        </is>
+      </c>
+      <c r="Q23" s="2" t="inlineStr">
+        <is>
+          <t>5231743</t>
+        </is>
+      </c>
+      <c r="R23" s="2" t="inlineStr">
+        <is>
+          <t>5404536</t>
+        </is>
+      </c>
+      <c r="S23" s="2" t="inlineStr">
+        <is>
+          <t>464669</t>
+        </is>
+      </c>
+      <c r="T23" s="2" t="inlineStr">
+        <is>
+          <t>473290</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>2318985; 2505063</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>2320171; 2454525</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>2418792; 2569193</t>
+        </is>
+      </c>
+      <c r="F24" s="2" t="inlineStr">
+        <is>
+          <t>2561068; 2715318</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>221956; 236067</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
+          <t>231841; 245096</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>2599618; 2741459</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>2605179; 2718646</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>2667335; 2795820</t>
+        </is>
+      </c>
+      <c r="L24" s="2" t="inlineStr">
+        <is>
+          <t>2691237; 2824289</t>
+        </is>
+      </c>
+      <c r="M24" s="2" t="inlineStr">
+        <is>
+          <t>227926; 240706</t>
+        </is>
+      </c>
+      <c r="N24" s="2" t="inlineStr">
+        <is>
+          <t>226898; 240400</t>
+        </is>
+      </c>
+      <c r="O24" s="2" t="inlineStr">
+        <is>
+          <t>4980836; 5215209</t>
+        </is>
+      </c>
+      <c r="P24" s="2" t="inlineStr">
+        <is>
+          <t>4967291; 5141487</t>
+        </is>
+      </c>
+      <c r="Q24" s="2" t="inlineStr">
+        <is>
+          <t>5127934; 5329127</t>
+        </is>
+      </c>
+      <c r="R24" s="2" t="inlineStr">
+        <is>
+          <t>5287437; 5499884</t>
+        </is>
+      </c>
+      <c r="S24" s="2" t="inlineStr">
+        <is>
+          <t>454858; 473200</t>
+        </is>
+      </c>
+      <c r="T24" s="2" t="inlineStr">
+        <is>
+          <t>464185; 482674</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="11">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="O1:T1"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="I1:N1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:F1"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="G1:J1"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="K1:N1"/>
-    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
+    <mergeCell ref="C1:H1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
